--- a/data/trans_orig/FINALB_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0A5273-D63D-4230-AA8B-90FAF18BEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB7F32-EC61-4905-8FAB-6D865663A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D96E8C0-6FFF-42F7-BE3B-F3C66A54B449}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24007A17-BFA1-4027-AB54-754ADD03B8E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,559 +83,559 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD71AB-4FEF-40D3-B89E-4D2E13A71EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173320B1-B3EE-437B-992B-F3C4E4AA9C59}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1243,10 +1243,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1255,10 +1255,10 @@
         <v>1229</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -1449,10 +1449,10 @@
         <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1461,13 +1461,13 @@
         <v>1908</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
         <v>7478</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1497,13 +1497,13 @@
         <v>3939</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1512,13 +1512,13 @@
         <v>11417</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>103047</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>209</v>
@@ -1548,13 +1548,13 @@
         <v>109613</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>321</v>
@@ -1563,13 +1563,13 @@
         <v>212659</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1584,13 @@
         <v>438103</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>775</v>
@@ -1599,28 +1599,28 @@
         <v>477096</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>1263</v>
       </c>
       <c r="N12" s="7">
-        <v>915198</v>
+        <v>915199</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>1606</v>
       </c>
       <c r="N13" s="7">
-        <v>1141182</v>
+        <v>1141183</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1703,13 +1703,13 @@
         <v>1474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1718,13 +1718,13 @@
         <v>1474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,13 +1739,13 @@
         <v>17842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -1754,13 +1754,13 @@
         <v>21886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>50</v>
@@ -1769,13 +1769,13 @@
         <v>39728</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1790,13 @@
         <v>114142</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>291</v>
@@ -1805,13 +1805,13 @@
         <v>170496</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
@@ -1820,13 +1820,13 @@
         <v>284638</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>907263</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>1190</v>
@@ -1856,13 +1856,13 @@
         <v>865618</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>2005</v>
@@ -1871,13 +1871,13 @@
         <v>1772882</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +1996,13 @@
         <v>5386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2011,13 +2011,13 @@
         <v>9081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2026,13 +2026,13 @@
         <v>14467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2047,13 @@
         <v>153140</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>203</v>
@@ -2062,13 +2062,13 @@
         <v>150652</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>343</v>
@@ -2077,13 +2077,13 @@
         <v>303792</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2098,13 @@
         <v>570246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>833</v>
@@ -2113,13 +2113,13 @@
         <v>714638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>1362</v>
@@ -2128,13 +2128,13 @@
         <v>1284883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2190,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2202,13 +2202,13 @@
         <v>3318</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2217,13 +2217,13 @@
         <v>1498</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>4816</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2253,13 @@
         <v>17109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2268,13 +2268,13 @@
         <v>31036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -2283,13 +2283,13 @@
         <v>48145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2304,13 @@
         <v>114009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -2319,13 +2319,13 @@
         <v>132108</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>331</v>
@@ -2334,13 +2334,13 @@
         <v>246117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>830967</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>1323</v>
@@ -2370,13 +2370,13 @@
         <v>985790</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>2179</v>
@@ -2385,13 +2385,13 @@
         <v>1816757</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2459,13 @@
         <v>3318</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2474,13 +2474,13 @@
         <v>5230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2489,13 +2489,13 @@
         <v>8548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2510,13 @@
         <v>47816</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>91</v>
@@ -2525,13 +2525,13 @@
         <v>67171</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>144</v>

--- a/data/trans_orig/FINALB_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB7F32-EC61-4905-8FAB-6D865663A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA04504-7A20-434C-903D-D2CA9AC0EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24007A17-BFA1-4027-AB54-754ADD03B8E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06148D95-772C-4D9E-9806-1F8BF19A44D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mala</t>
@@ -173,7 +173,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -275,7 +275,7 @@
     <t>82,27%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -368,7 +368,7 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173320B1-B3EE-437B-992B-F3C4E4AA9C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8406A3-A724-49BF-8E4B-FF79AEDAF276}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
